--- a/project/templates/Test Execution Report.xlsx
+++ b/project/templates/Test Execution Report.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongnhat/Desktop/Project-KTPM/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{59F88AB4-214F-3F4C-9DB4-FC62BE9D174F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CC8388-E495-8C4B-BF0B-9DF08C433F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20080" tabRatio="943" activeTab="2" xr2:uid="{9D65CF23-D743-0A4B-85ED-AFA3F9B6771F}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="20080" tabRatio="943" activeTab="5" xr2:uid="{9D65CF23-D743-0A4B-85ED-AFA3F9B6771F}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="28" r:id="rId1"/>
-    <sheet name="Interface Execution" sheetId="31" r:id="rId2"/>
+    <sheet name="Interface" sheetId="41" r:id="rId2"/>
     <sheet name="Functional" sheetId="40" r:id="rId3"/>
     <sheet name="Compatibility" sheetId="36" r:id="rId4"/>
     <sheet name="Database" sheetId="35" r:id="rId5"/>
@@ -25,7 +25,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="Action_Handler">#REF!</definedName>
@@ -166,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="342">
   <si>
     <t>Yes</t>
   </si>
@@ -442,6 +441,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -699,9 +699,6 @@
     <t>2025-12-11</t>
   </si>
   <si>
-    <t>MongoDB timeout not handled gracefully</t>
-  </si>
-  <si>
     <t>TC-USER-006</t>
   </si>
   <si>
@@ -750,9 +747,6 @@
     <t>DEF-002</t>
   </si>
   <si>
-    <t>Image not deleted when DB save fails</t>
-  </si>
-  <si>
     <t>TC-FOOD-005</t>
   </si>
   <si>
@@ -843,9 +837,6 @@
     <t>Stripe session creation</t>
   </si>
   <si>
-    <t>Stripe API key not configured in test env</t>
-  </si>
-  <si>
     <t>TC-ORDER-004</t>
   </si>
   <si>
@@ -858,18 +849,12 @@
     <t>2025-12-15</t>
   </si>
   <si>
-    <t>No retry mechanism implemented</t>
-  </si>
-  <si>
     <t>TC-ORDER-005</t>
   </si>
   <si>
     <t>Stripe retry logic</t>
   </si>
   <si>
-    <t>Depends on TC-ORDER-003</t>
-  </si>
-  <si>
     <t>TC-ORDER-006</t>
   </si>
   <si>
@@ -891,9 +876,6 @@
     <t>DEF-004</t>
   </si>
   <si>
-    <t>Orphan order record found</t>
-  </si>
-  <si>
     <t>TC-ORDER-009</t>
   </si>
   <si>
@@ -1342,6 +1324,27 @@
   </si>
   <si>
     <t>Access control</t>
+  </si>
+  <si>
+    <t>Depends on TC-ORDER-003 - cannot test without Stripe config</t>
+  </si>
+  <si>
+    <t>No timeout handling: Application hangs for 30s when Stripe API unavailable</t>
+  </si>
+  <si>
+    <t>Stripe API key not configured in test environment</t>
+  </si>
+  <si>
+    <t>Security vulnerability: System accepts .exe files - MIME type validation missing in Multer</t>
+  </si>
+  <si>
+    <t>Password validation BVA bug: rejects 8-char passwords (uses &gt; instead of &gt;=)</t>
+  </si>
+  <si>
+    <t>Email validation accepts 'test' without @domain - validator.isEmail() not implemented</t>
+  </si>
+  <si>
+    <t>Blocked/Not Run</t>
   </si>
 </sst>
 </file>
@@ -1349,9 +1352,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="194" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -1360,6 +1363,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1534,6 +1538,13 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="22">
@@ -1873,25 +1884,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1900,7 +1908,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1934,29 +1942,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -1980,34 +1981,34 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -2023,18 +2024,6 @@
     <xf numFmtId="0" fontId="25" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2049,7 +2038,7 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="194" fontId="22" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="22" fillId="13" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2065,50 +2054,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2117,12 +2062,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2145,6 +2084,76 @@
     <xf numFmtId="0" fontId="25" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="4" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="4" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2154,13 +2163,6 @@
     <xf numFmtId="0" fontId="7" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2170,17 +2172,43 @@
     <xf numFmtId="0" fontId="7" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Nor}al" xfId="1" xr:uid="{37F8C628-9DAC-EB4B-8315-CC321F717CDD}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C3B84142-FA63-AC45-AC57-1DA7C6F84842}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{A67C309B-98FF-1D45-82ED-C868A25DE5A5}"/>
     <cellStyle name="Normal_Issues - Defects - Dependencies - Risks - CDR - PLDDR - P3625" xfId="3" xr:uid="{6B02D5D6-D4D7-814C-BFAC-A7C120B85C8A}"/>
     <cellStyle name="Normal_Tailoring Decisions" xfId="4" xr:uid="{D06AD461-89A5-BB4C-AF90-22E8103EED0D}"/>
     <cellStyle name="Normal_Test Execution___" xfId="5" xr:uid="{FF1FD625-E3DE-2A48-AD76-EECC9B2CB0A9}"/>
@@ -2199,6 +2227,530 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="vi-VN"/>
+              <a:t>Test Execution Result</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35833611111111113"/>
+          <c:y val="0.91016666666666668"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interface!$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="1"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Interface!$L$9:$L$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blocked</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Not Run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interface!$M$9:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4D7-C14C-92AD-534A5ACD72C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="1"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="1"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="vi-VN"/>
+              <a:t>Module-wise Test Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33742814814814814"/>
+          <c:y val="8.1138888888888885E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interface!$M$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Interface!$L$17:$L$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Module1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Module2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Module3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Module4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Module5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interface!$M$17:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACCE-E543-950C-97ADE71FB373}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interface!$N$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Interface!$L$17:$L$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Module1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Module2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Module3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Module4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Module5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interface!$N$17:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACCE-E543-950C-97ADE71FB373}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interface!$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blocked/Not Run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Interface!$L$17:$L$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Module1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Module2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Module3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Module4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Module5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interface!$O$17:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACCE-E543-950C-97ADE71FB373}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="vi-VN"/>
+                  <a:t>Module</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="vi-VN"/>
+                  <a:t>Number of Test Cases</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2264,6 +2816,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F6A8-B147-A6E6-8620E7AB7ED0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2279,6 +2836,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F6A8-B147-A6E6-8620E7AB7ED0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2294,6 +2856,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F6A8-B147-A6E6-8620E7AB7ED0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2309,252 +2876,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Interface Execution'!$L$9:$L$12</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Passed</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Failed</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Blocked</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Not Run</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Interface Execution'!$M$9:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C3FF-D849-9A81-6AEBAFF257DC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F6A8-B147-A6E6-8620E7AB7ED0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2570,6 +2896,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F6A8-B147-A6E6-8620E7AB7ED0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2711,7 +3042,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2796,17 +3127,6 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="9999FF"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000000-26F9-FC4E-BC35-4752CE2F53AF}"/>
@@ -3242,7 +3562,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3653,10 +3973,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -3773,7 +4093,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4293,7 +4613,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4853,566 +5173,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5933,29 +5694,26 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:colOff>455187</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>171820</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="5400000" cy="3600000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC61FAC6-29F5-F1B1-EF20-DEDC1EA25668}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5968,7 +5726,40 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32565</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>81410</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="3600000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5992,7 +5783,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAD939A-AA26-A414-CB75-FC55AAFC453F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6033,7 +5824,7 @@
         <xdr:cNvPr id="93199" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32CD8021-7E3D-A7A3-DEFE-8132C21FF6BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F6C0100}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6060,23 +5851,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="58394" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46857E0F-1F71-A025-84FA-42A2E9EF4E97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001AE40000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6103,23 +5894,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB2528F-36EE-7243-BBB0-13696753EBC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6162,7 +5953,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6794BAA-B99D-9743-A1A5-96AA5F5E3586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6189,18 +5980,18 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
+      <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>10985500</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>787400</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>406400</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6210,7 +6001,7 @@
                   <a14:compatExt spid="_x0000_s26625"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD4EF18-D939-6774-18A7-2DE36B889770}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000001680000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6228,7 +6019,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -6246,15 +6036,6 @@
                   <a:headEnd type="none" w="sm" len="sm"/>
                   <a:tailEnd type="none" w="sm" len="sm"/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -6287,7 +6068,7 @@
                   <a14:compatExt spid="_x0000_s26627"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66909327-4C25-B2A2-9100-D788ED8F767E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003680000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6305,7 +6086,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -6324,15 +6104,6 @@
                   <a:tailEnd type="none" w="sm" len="sm"/>
                 </a14:hiddenLine>
               </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
             </a:extLst>
           </xdr:spPr>
         </xdr:sp>
@@ -6343,18 +6114,18 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
+      <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>10985500</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>787400</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>406400</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6364,7 +6135,7 @@
                   <a14:compatExt spid="_x0000_s26628"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9021AFF3-5907-E457-D18E-241085CBAB2A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004680000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6382,7 +6153,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -6400,15 +6170,6 @@
                   <a:headEnd type="none" w="sm" len="sm"/>
                   <a:tailEnd type="none" w="sm" len="sm"/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -6441,7 +6202,7 @@
                   <a14:compatExt spid="_x0000_s26629"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0556C8DA-7BFA-EBED-7604-21F866C56C8E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005680000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6459,7 +6220,6 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -6477,15 +6237,6 @@
                   <a:headEnd type="none" w="sm" len="sm"/>
                   <a:tailEnd type="none" w="sm" len="sm"/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -6514,57 +6265,6 @@
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Test Execution Report"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="M8" t="str">
-            <v>Count</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="L9" t="str">
-            <v>Passed</v>
-          </cell>
-          <cell r="M9">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="L10" t="str">
-            <v>Failed</v>
-          </cell>
-          <cell r="M10">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="L11" t="str">
-            <v>Blocked</v>
-          </cell>
-          <cell r="M11">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="L12" t="str">
-            <v>Not Run</v>
-          </cell>
-          <cell r="M12">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6925,227 +6625,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D55264-5FE6-4644-B817-7EDC0FF1F2AF}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="B3:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.7109375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="9.7109375" style="26"/>
+    <col min="1" max="1" width="9.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="9.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-    </row>
-    <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="2:3" ht="18">
+      <c r="B3" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="25"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28" t="s">
+    </row>
+    <row r="7" spans="2:3" ht="18" customHeight="1">
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="2:3" ht="18" customHeight="1">
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="53" t="s">
+    <row r="9" spans="2:3" ht="18" customHeight="1">
+      <c r="B9" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="53" t="s">
+    <row r="10" spans="2:3" ht="18" customHeight="1">
+      <c r="B10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="53" t="s">
+    <row r="11" spans="2:3" ht="18" customHeight="1">
+      <c r="B11" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="28" t="s">
+    <row r="12" spans="2:3" ht="18" customHeight="1">
+      <c r="B12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1">
-      <c r="B13" s="28" t="s">
+    <row r="13" spans="2:3" ht="19.5" customHeight="1">
+      <c r="B13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="100.5" customHeight="1">
-      <c r="B15" s="76" t="s">
+    <row r="15" spans="2:3" ht="100.5" customHeight="1">
+      <c r="B15" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="77"/>
+      <c r="C15" s="97"/>
     </row>
     <row r="17" spans="2:5" ht="14">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" ht="14">
-      <c r="B19" s="52"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="2:5" ht="14">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78" t="s">
+      <c r="C21" s="98"/>
+      <c r="D21" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="78"/>
+      <c r="E21" s="98"/>
     </row>
     <row r="22" spans="2:5" ht="14">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="49"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="2:5" ht="14">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50" t="s">
+      <c r="C23" s="44"/>
+      <c r="D23" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="2:5" ht="42">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50" t="s">
+      <c r="C24" s="44"/>
+      <c r="D24" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="49"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="2:5" ht="42">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="50" t="s">
+      <c r="C25" s="44"/>
+      <c r="D25" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="49"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="2:5" ht="14">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50" t="s">
+      <c r="C26" s="44"/>
+      <c r="D26" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="49"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="2:5" ht="14">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50" t="s">
+      <c r="C27" s="44"/>
+      <c r="D27" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="49"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="28" spans="2:5" ht="14">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="50" t="s">
+      <c r="C28" s="44"/>
+      <c r="D28" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="44"/>
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
@@ -7168,978 +6835,1051 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5694C7-BC90-DC47-8990-6D9D730D0C41}">
-  <dimension ref="A1:M52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21782A1E-6228-CF41-BD9A-F2B07A05984A}">
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScale="78" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12" style="80" customWidth="1"/>
+    <col min="2" max="2" width="30" style="80" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="80" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="80" customWidth="1"/>
+    <col min="5" max="5" width="12" style="80" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="80" customWidth="1"/>
+    <col min="7" max="7" width="12" style="80" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="80" customWidth="1"/>
+    <col min="9" max="16384" width="7.5703125" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:15" ht="18">
+      <c r="A1" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="54" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="80" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="54" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="80" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:15" ht="16">
+      <c r="A8" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="L8" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="57" t="s">
+      <c r="M8" s="80" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="56" t="s">
+    <row r="9" spans="1:15">
+      <c r="A9" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="87">
         <v>35</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="57">
+      <c r="M9" s="80">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="56" t="s">
+    <row r="10" spans="1:15">
+      <c r="A10" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="57">
+      <c r="M10" s="80">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="57" t="s">
+      <c r="L11" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="80">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:15">
+      <c r="A12" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="L12" s="57" t="s">
+      <c r="L12" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="57">
+      <c r="M12" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="87" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:15">
+      <c r="A14" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="87" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="55" t="s">
+    <row r="16" spans="1:15" ht="16">
+      <c r="A16" s="86" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="31">
-      <c r="A17" s="58" t="s">
+      <c r="L16" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="N16" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="80" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="31">
+      <c r="A17" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="85" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="17">
-      <c r="A18" s="59" t="s">
+      <c r="L17" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="80">
+        <v>7</v>
+      </c>
+      <c r="N17" s="80">
+        <v>1</v>
+      </c>
+      <c r="O17" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16">
+      <c r="A18" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="60"/>
-    </row>
-    <row r="19" spans="1:8" ht="17">
-      <c r="A19" s="59" t="s">
+      <c r="H18" s="83"/>
+      <c r="L18" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" s="80">
+        <v>7</v>
+      </c>
+      <c r="N18" s="80">
+        <v>1</v>
+      </c>
+      <c r="O18" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16">
+      <c r="A19" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59" t="s">
+      <c r="E19" s="84"/>
+      <c r="F19" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="60"/>
-    </row>
-    <row r="20" spans="1:8" ht="17">
-      <c r="A20" s="59" t="s">
+      <c r="H19" s="83"/>
+      <c r="L19" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" s="80">
+        <v>7</v>
+      </c>
+      <c r="N19" s="80">
+        <v>0</v>
+      </c>
+      <c r="O19" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="32">
+      <c r="A20" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="91" t="s">
+        <v>340</v>
+      </c>
+      <c r="L20" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" s="80">
+        <v>6</v>
+      </c>
+      <c r="N20" s="80">
+        <v>2</v>
+      </c>
+      <c r="O20" s="80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="32">
+      <c r="A21" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="91" t="s">
+        <v>339</v>
+      </c>
+      <c r="L21" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" s="80">
+        <v>1</v>
+      </c>
+      <c r="N21" s="80">
+        <v>0</v>
+      </c>
+      <c r="O21" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="16">
+      <c r="A22" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59" t="s">
+      <c r="E22" s="92"/>
+      <c r="F22" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="60"/>
-    </row>
-    <row r="21" spans="1:8" ht="17">
-      <c r="A21" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="59" t="s">
+      <c r="G22" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="93"/>
+    </row>
+    <row r="23" spans="1:15" ht="16">
+      <c r="A23" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D23" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59" t="s">
+      <c r="E23" s="92"/>
+      <c r="F23" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="60"/>
-    </row>
-    <row r="22" spans="1:8" ht="17">
-      <c r="A22" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="61" t="s">
+      <c r="G23" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="93"/>
+    </row>
+    <row r="24" spans="1:15" ht="16">
+      <c r="A24" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D24" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="93"/>
+    </row>
+    <row r="25" spans="1:15" ht="16">
+      <c r="A25" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="93"/>
+    </row>
+    <row r="26" spans="1:15" ht="16">
+      <c r="A26" s="92" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="93"/>
+    </row>
+    <row r="27" spans="1:15" ht="16">
+      <c r="A27" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="93"/>
+    </row>
+    <row r="28" spans="1:15" ht="32">
+      <c r="A28" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="61" t="s">
+      <c r="E28" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17">
-      <c r="A23" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="59" t="s">
+      <c r="G28" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="91" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="16">
+      <c r="A29" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59" t="s">
+      <c r="E29" s="92"/>
+      <c r="F29" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="60"/>
-    </row>
-    <row r="24" spans="1:8" ht="17">
-      <c r="A24" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="59" t="s">
+      <c r="G29" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="93"/>
+    </row>
+    <row r="30" spans="1:15" ht="16">
+      <c r="A30" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59" t="s">
+      <c r="E30" s="92"/>
+      <c r="F30" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="60"/>
-    </row>
-    <row r="25" spans="1:8" ht="17">
-      <c r="A25" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="59" t="s">
+      <c r="G30" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="93"/>
+    </row>
+    <row r="31" spans="1:15" ht="16">
+      <c r="A31" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59" t="s">
+      <c r="E31" s="92"/>
+      <c r="F31" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="60"/>
-    </row>
-    <row r="26" spans="1:8" ht="17">
-      <c r="A26" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="60" t="s">
+      <c r="G31" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="H31" s="93"/>
+    </row>
+    <row r="32" spans="1:15" ht="16">
+      <c r="A32" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D32" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59" t="s">
+      <c r="E32" s="92"/>
+      <c r="F32" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="60"/>
-    </row>
-    <row r="27" spans="1:8" ht="17">
-      <c r="A27" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="59" t="s">
+      <c r="G32" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="93"/>
+    </row>
+    <row r="33" spans="1:8" ht="16">
+      <c r="A33" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D33" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59" t="s">
+      <c r="E33" s="92"/>
+      <c r="F33" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="60"/>
-    </row>
-    <row r="28" spans="1:8" ht="17">
-      <c r="A28" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="59" t="s">
+      <c r="G33" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="93"/>
+    </row>
+    <row r="34" spans="1:8" ht="16">
+      <c r="A34" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59" t="s">
+      <c r="E34" s="92"/>
+      <c r="F34" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="H28" s="60"/>
-    </row>
-    <row r="29" spans="1:8" ht="17">
-      <c r="A29" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="61" t="s">
+      <c r="G34" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="93"/>
+    </row>
+    <row r="35" spans="1:8" ht="16">
+      <c r="A35" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="93"/>
+    </row>
+    <row r="36" spans="1:8" ht="16">
+      <c r="A36" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="93"/>
+    </row>
+    <row r="37" spans="1:8" ht="16">
+      <c r="A37" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="93"/>
+    </row>
+    <row r="38" spans="1:8" ht="16">
+      <c r="A38" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="93"/>
+    </row>
+    <row r="39" spans="1:8" ht="16">
+      <c r="A39" s="92" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="93"/>
+    </row>
+    <row r="40" spans="1:8" ht="16">
+      <c r="A40" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40" s="93"/>
+    </row>
+    <row r="41" spans="1:8" ht="16">
+      <c r="A41" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" s="93"/>
+    </row>
+    <row r="42" spans="1:8" ht="16">
+      <c r="A42" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" s="93"/>
+    </row>
+    <row r="43" spans="1:8" ht="16">
+      <c r="A43" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="94"/>
+      <c r="F43" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="H43" s="95" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="32">
+      <c r="A44" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="61" t="s">
+      <c r="E44" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17">
-      <c r="A30" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="59" t="s">
+      <c r="G44" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="H44" s="91" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="32">
+      <c r="A45" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="94"/>
+      <c r="F45" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="H45" s="95" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16">
+      <c r="A46" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59" t="s">
+      <c r="E46" s="92"/>
+      <c r="F46" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" s="60"/>
-    </row>
-    <row r="31" spans="1:8" ht="17">
-      <c r="A31" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="59" t="s">
+      <c r="G46" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="H46" s="93"/>
+    </row>
+    <row r="47" spans="1:8" ht="16">
+      <c r="A47" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59" t="s">
+      <c r="E47" s="92"/>
+      <c r="F47" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="H31" s="60"/>
-    </row>
-    <row r="32" spans="1:8" ht="17">
-      <c r="A32" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="59" t="s">
+      <c r="G47" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="H47" s="93"/>
+    </row>
+    <row r="48" spans="1:8" ht="16">
+      <c r="A48" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59" t="s">
+      <c r="E48" s="92"/>
+      <c r="F48" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="H32" s="60"/>
-    </row>
-    <row r="33" spans="1:8" ht="17">
-      <c r="A33" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="59" t="s">
+      <c r="G48" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" s="93"/>
+    </row>
+    <row r="49" spans="1:8" ht="16">
+      <c r="A49" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59" t="s">
+      <c r="E49" s="92"/>
+      <c r="F49" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="H33" s="60"/>
-    </row>
-    <row r="34" spans="1:8" ht="17">
-      <c r="A34" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="59" t="s">
+      <c r="G49" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="H49" s="93"/>
+    </row>
+    <row r="50" spans="1:8" ht="16">
+      <c r="A50" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59" t="s">
+      <c r="E50" s="92"/>
+      <c r="F50" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34" s="60"/>
-    </row>
-    <row r="35" spans="1:8" ht="17">
-      <c r="A35" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="59" t="s">
+      <c r="G50" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="H50" s="93"/>
+    </row>
+    <row r="51" spans="1:8" ht="16">
+      <c r="A51" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59" t="s">
+      <c r="E51" s="92"/>
+      <c r="F51" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="60"/>
-    </row>
-    <row r="36" spans="1:8" ht="17">
-      <c r="A36" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="H36" s="60"/>
-    </row>
-    <row r="37" spans="1:8" ht="17">
-      <c r="A37" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="60" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="H37" s="60"/>
-    </row>
-    <row r="38" spans="1:8" ht="17">
-      <c r="A38" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="H38" s="60"/>
-    </row>
-    <row r="39" spans="1:8" ht="17">
-      <c r="A39" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="H39" s="60"/>
-    </row>
-    <row r="40" spans="1:8" ht="17">
-      <c r="A40" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="H40" s="60"/>
-    </row>
-    <row r="41" spans="1:8" ht="17">
-      <c r="A41" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="H41" s="60"/>
-    </row>
-    <row r="42" spans="1:8" ht="17">
-      <c r="A42" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="B42" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="H42" s="60"/>
-    </row>
-    <row r="43" spans="1:8" ht="17">
-      <c r="A43" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>173</v>
-      </c>
-      <c r="C43" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="H43" s="64" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="17">
-      <c r="A44" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="F44" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="H44" s="62" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17">
-      <c r="A45" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="C45" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G45" s="63" t="s">
-        <v>178</v>
-      </c>
-      <c r="H45" s="64" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17">
-      <c r="A46" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="H46" s="60"/>
-    </row>
-    <row r="47" spans="1:8" ht="17">
-      <c r="A47" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="B47" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="H47" s="60"/>
-    </row>
-    <row r="48" spans="1:8" ht="17">
-      <c r="A48" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="F48" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="G48" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="H48" s="62" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="17">
-      <c r="A49" s="59" t="s">
+      <c r="G51" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="60" t="s">
+      <c r="H51" s="93"/>
+    </row>
+    <row r="52" spans="1:8" ht="16">
+      <c r="A52" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G49" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="H49" s="60"/>
-    </row>
-    <row r="50" spans="1:8" ht="17">
-      <c r="A50" s="59" t="s">
+      <c r="B52" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="B50" s="60" t="s">
+      <c r="C52" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="81" t="s">
         <v>194</v>
-      </c>
-      <c r="C50" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="H50" s="60"/>
-    </row>
-    <row r="51" spans="1:8" ht="17">
-      <c r="A51" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="B51" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="G51" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="H51" s="60"/>
-    </row>
-    <row r="52" spans="1:8" ht="17">
-      <c r="A52" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="B52" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="C52" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="66" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8148,7 +7888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9F47-C8DD-D34F-82FB-B2FCE878669F}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="105" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="105" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -8156,31 +7896,31 @@
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="97" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="68" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="98" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="96"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="49" t="s">
         <v>76</v>
       </c>
       <c r="B3" t="s">
@@ -8188,15 +7928,15 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B5" t="s">
@@ -8204,7 +7944,7 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="49" t="s">
         <v>82</v>
       </c>
       <c r="B6" t="s">
@@ -8212,1422 +7952,1422 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="50" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="99">
+      <c r="B9" s="70">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="99" t="s">
-        <v>249</v>
+      <c r="B10" s="70" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="99">
+      <c r="B11" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="99">
+      <c r="B12" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="99">
+      <c r="B13" s="70">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="100">
+      <c r="B14" s="71">
         <v>1</v>
       </c>
-      <c r="J14" s="101"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="J15" s="101"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="102" t="s">
+      <c r="J16" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="68">
+      <c r="K16" s="57">
         <v>29</v>
       </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
     </row>
     <row r="17" spans="1:20" ht="31">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="102" t="s">
+      <c r="J17" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="68">
+      <c r="K17" s="57">
         <f>COUNTIF($C$5:$C$28,J17)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="104" t="s">
-        <v>250</v>
-      </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
-      <c r="J18" s="102" t="s">
+      <c r="A18" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="107"/>
+      <c r="J18" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="68">
+      <c r="K18" s="57">
         <f>COUNTIF($C$5:$C$28,J18)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
     </row>
     <row r="19" spans="1:20" ht="17">
-      <c r="A19" s="107" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" s="108" t="s">
-        <v>252</v>
-      </c>
-      <c r="C19" s="107" t="s">
+      <c r="A19" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="G19" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H19" s="108" t="s">
-        <v>255</v>
-      </c>
-      <c r="J19" s="102" t="s">
+      <c r="E19" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H19" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="68">
+      <c r="K19" s="57">
         <f>COUNTIF($C$5:$C$28,J19)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
     </row>
     <row r="20" spans="1:20" ht="17">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="G20" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H20" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="J20" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+    </row>
+    <row r="21" spans="1:20" ht="19" customHeight="1">
+      <c r="A21" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H21" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="B20" s="108" t="s">
+      <c r="J21" s="72"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+    </row>
+    <row r="22" spans="1:20" ht="17">
+      <c r="A22" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="B22" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D22" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E20" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="G20" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="J20" s="102" t="s">
-        <v>202</v>
-      </c>
-      <c r="K20" s="68" t="s">
+      <c r="E22" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H22" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-    </row>
-    <row r="21" spans="1:20" ht="19" customHeight="1">
-      <c r="A21" s="107" t="s">
+      <c r="J22" s="72"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+    </row>
+    <row r="23" spans="1:20" ht="34">
+      <c r="A23" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B23" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="C21" s="107" t="s">
+      <c r="C23" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D23" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H21" s="108" t="s">
+      <c r="E23" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H23" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="J21" s="101"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-    </row>
-    <row r="22" spans="1:20" ht="17">
-      <c r="A22" s="107" t="s">
+      <c r="J23" s="72"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+    </row>
+    <row r="24" spans="1:20" ht="19" customHeight="1">
+      <c r="A24" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B24" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="C22" s="107" t="s">
+      <c r="C24" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D24" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H22" s="108" t="s">
+      <c r="E24" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H24" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="J22" s="101"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-    </row>
-    <row r="23" spans="1:20" ht="34">
-      <c r="A23" s="107" t="s">
+      <c r="J24" s="72"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+    </row>
+    <row r="25" spans="1:20" ht="17">
+      <c r="A25" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B25" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H25" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="C23" s="107" t="s">
+      <c r="J25" s="72"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+    </row>
+    <row r="26" spans="1:20" ht="17">
+      <c r="A26" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D26" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H23" s="108" t="s">
-        <v>268</v>
-      </c>
-      <c r="J23" s="101"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-    </row>
-    <row r="24" spans="1:20" ht="19" customHeight="1">
-      <c r="A24" s="107" t="s">
-        <v>269</v>
-      </c>
-      <c r="B24" s="108" t="s">
+      <c r="E26" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H26" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="107" t="s">
+      <c r="J26" s="72"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+    </row>
+    <row r="27" spans="1:20" ht="17">
+      <c r="A27" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D27" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="G24" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H24" s="108" t="s">
-        <v>271</v>
-      </c>
-      <c r="J24" s="101"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-    </row>
-    <row r="25" spans="1:20" ht="17">
-      <c r="A25" s="107" t="s">
-        <v>272</v>
-      </c>
-      <c r="B25" s="108" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="107" t="s">
+      <c r="E27" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H27" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="J27" s="72"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+    </row>
+    <row r="28" spans="1:20" ht="17">
+      <c r="A28" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D28" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="G25" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H25" s="108" t="s">
-        <v>273</v>
-      </c>
-      <c r="J25" s="101"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-    </row>
-    <row r="26" spans="1:20" ht="17">
-      <c r="A26" s="107" t="s">
-        <v>274</v>
-      </c>
-      <c r="B26" s="108" t="s">
-        <v>275</v>
-      </c>
-      <c r="C26" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="57" t="s">
+      <c r="E28" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H28" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="J28" s="72"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="107"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+    </row>
+    <row r="30" spans="1:20" ht="34">
+      <c r="A30" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="G26" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H26" s="108" t="s">
-        <v>276</v>
-      </c>
-      <c r="J26" s="101"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-    </row>
-    <row r="27" spans="1:20" ht="17">
-      <c r="A27" s="107" t="s">
-        <v>277</v>
-      </c>
-      <c r="B27" s="108" t="s">
-        <v>278</v>
-      </c>
-      <c r="C27" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="57" t="s">
+      <c r="E30" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H30" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" s="72"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+    </row>
+    <row r="31" spans="1:20" ht="21" customHeight="1">
+      <c r="A31" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H27" s="108" t="s">
-        <v>279</v>
-      </c>
-      <c r="J27" s="101"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-    </row>
-    <row r="28" spans="1:20" ht="17">
-      <c r="A28" s="107" t="s">
+      <c r="E31" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="B28" s="108" t="s">
-        <v>281</v>
-      </c>
-      <c r="C28" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="57" t="s">
+      <c r="G31" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="76" t="s">
+        <v>284</v>
+      </c>
+      <c r="J31" s="72"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+    </row>
+    <row r="32" spans="1:20" ht="17">
+      <c r="A32" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F28" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="G28" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H28" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="J28" s="101"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="104" t="s">
-        <v>283</v>
-      </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="106"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-    </row>
-    <row r="30" spans="1:20" ht="34">
-      <c r="A30" s="107" t="s">
-        <v>284</v>
-      </c>
-      <c r="B30" s="108" t="s">
-        <v>285</v>
-      </c>
-      <c r="C30" s="107" t="s">
+      <c r="E32" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H32" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="J32" s="72"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+    </row>
+    <row r="33" spans="1:20" ht="34">
+      <c r="A33" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D33" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G30" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H30" s="108" t="s">
-        <v>287</v>
-      </c>
-      <c r="J30" s="101"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-    </row>
-    <row r="31" spans="1:20" ht="21" customHeight="1">
-      <c r="A31" s="107" t="s">
-        <v>288</v>
-      </c>
-      <c r="B31" s="108" t="s">
-        <v>289</v>
-      </c>
-      <c r="C31" s="107" t="s">
+      <c r="E33" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H33" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="J33" s="72"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+    </row>
+    <row r="34" spans="1:20" ht="34">
+      <c r="A34" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="B34" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D34" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H31" s="108" t="s">
-        <v>290</v>
-      </c>
-      <c r="J31" s="101"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-    </row>
-    <row r="32" spans="1:20" ht="17">
-      <c r="A32" s="107" t="s">
-        <v>291</v>
-      </c>
-      <c r="B32" s="108" t="s">
-        <v>292</v>
-      </c>
-      <c r="C32" s="107" t="s">
+      <c r="E34" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H34" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="J34" s="72"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+    </row>
+    <row r="35" spans="1:20" ht="34">
+      <c r="A35" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="C35" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D35" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F32" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H32" s="108" t="s">
-        <v>293</v>
-      </c>
-      <c r="J32" s="101"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-    </row>
-    <row r="33" spans="1:20" ht="34">
-      <c r="A33" s="107" t="s">
-        <v>294</v>
-      </c>
-      <c r="B33" s="108" t="s">
-        <v>295</v>
-      </c>
-      <c r="C33" s="107" t="s">
+      <c r="E35" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H35" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="J35" s="72"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+    </row>
+    <row r="36" spans="1:20" ht="34">
+      <c r="A36" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="76" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D36" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F33" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G33" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H33" s="108" t="s">
-        <v>296</v>
-      </c>
-      <c r="J33" s="101"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-    </row>
-    <row r="34" spans="1:20" ht="34">
-      <c r="A34" s="107" t="s">
-        <v>297</v>
-      </c>
-      <c r="B34" s="108" t="s">
-        <v>298</v>
-      </c>
-      <c r="C34" s="107" t="s">
+      <c r="E36" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="J36" s="72"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+    </row>
+    <row r="37" spans="1:20" ht="34">
+      <c r="A37" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D37" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F34" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G34" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H34" s="108" t="s">
-        <v>299</v>
-      </c>
-      <c r="J34" s="101"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-    </row>
-    <row r="35" spans="1:20" ht="34">
-      <c r="A35" s="107" t="s">
-        <v>300</v>
-      </c>
-      <c r="B35" s="108" t="s">
+      <c r="E37" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H37" s="76" t="s">
+        <v>302</v>
+      </c>
+      <c r="J37" s="72"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+    </row>
+    <row r="38" spans="1:20" ht="34">
+      <c r="A38" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="76" t="s">
         <v>301</v>
       </c>
-      <c r="C35" s="107" t="s">
+      <c r="C38" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D38" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F35" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G35" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H35" s="108" t="s">
+      <c r="E38" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H38" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="J35" s="101"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-    </row>
-    <row r="36" spans="1:20" ht="34">
-      <c r="A36" s="107" t="s">
-        <v>303</v>
-      </c>
-      <c r="B36" s="108" t="s">
+      <c r="J38" s="72"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="C36" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="57" t="s">
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
+      <c r="H39" s="110"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+    </row>
+    <row r="40" spans="1:20" ht="17">
+      <c r="A40" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>306</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G36" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H36" s="108" t="s">
-        <v>305</v>
-      </c>
-      <c r="J36" s="101"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-    </row>
-    <row r="37" spans="1:20" ht="34">
-      <c r="A37" s="107" t="s">
-        <v>306</v>
-      </c>
-      <c r="B37" s="108" t="s">
+      <c r="E40" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H40" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="C37" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="57" t="s">
+      <c r="J40" s="72"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+    </row>
+    <row r="41" spans="1:20" ht="34">
+      <c r="A41" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" s="76" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F37" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G37" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H37" s="108" t="s">
-        <v>308</v>
-      </c>
-      <c r="J37" s="101"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-    </row>
-    <row r="38" spans="1:20" ht="34">
-      <c r="A38" s="107" t="s">
-        <v>309</v>
-      </c>
-      <c r="B38" s="108" t="s">
-        <v>307</v>
-      </c>
-      <c r="C38" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="57" t="s">
+      <c r="E41" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H41" s="78" t="s">
+        <v>310</v>
+      </c>
+      <c r="J41" s="72"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+    </row>
+    <row r="42" spans="1:20" ht="17">
+      <c r="A42" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" s="76" t="s">
+        <v>312</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F38" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G38" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H38" s="109" t="s">
-        <v>308</v>
-      </c>
-      <c r="J38" s="101"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="110" t="s">
-        <v>310</v>
-      </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="112"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-    </row>
-    <row r="40" spans="1:20" ht="17">
-      <c r="A40" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="B40" s="108" t="s">
-        <v>312</v>
-      </c>
-      <c r="C40" s="107" t="s">
+      <c r="E42" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H42" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" s="72"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+    </row>
+    <row r="43" spans="1:20" ht="17">
+      <c r="A43" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="B43" s="76" t="s">
+        <v>315</v>
+      </c>
+      <c r="C43" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D43" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G40" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H40" s="113" t="s">
-        <v>313</v>
-      </c>
-      <c r="J40" s="101"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-    </row>
-    <row r="41" spans="1:20" ht="34">
-      <c r="A41" s="107" t="s">
-        <v>314</v>
-      </c>
-      <c r="B41" s="108" t="s">
-        <v>315</v>
-      </c>
-      <c r="C41" s="107" t="s">
+      <c r="E43" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H43" s="78" t="s">
+        <v>316</v>
+      </c>
+      <c r="J43" s="72"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+    </row>
+    <row r="44" spans="1:20" ht="34">
+      <c r="A44" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" s="76" t="s">
+        <v>318</v>
+      </c>
+      <c r="C44" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D44" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F41" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G41" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H41" s="113" t="s">
-        <v>316</v>
-      </c>
-      <c r="J41" s="101"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-    </row>
-    <row r="42" spans="1:20" ht="17">
-      <c r="A42" s="107" t="s">
-        <v>317</v>
-      </c>
-      <c r="B42" s="108" t="s">
-        <v>318</v>
-      </c>
-      <c r="C42" s="107" t="s">
+      <c r="E44" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F44" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G44" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H44" s="77" t="s">
+        <v>319</v>
+      </c>
+      <c r="J44" s="72"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+    </row>
+    <row r="45" spans="1:20" ht="34">
+      <c r="A45" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="B45" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="C45" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D45" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F42" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G42" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H42" s="113" t="s">
-        <v>319</v>
-      </c>
-      <c r="J42" s="101"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-    </row>
-    <row r="43" spans="1:20" ht="17">
-      <c r="A43" s="107" t="s">
-        <v>320</v>
-      </c>
-      <c r="B43" s="108" t="s">
-        <v>321</v>
-      </c>
-      <c r="C43" s="107" t="s">
+      <c r="E45" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G45" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H45" s="77" t="s">
+        <v>322</v>
+      </c>
+      <c r="J45" s="72"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+    </row>
+    <row r="46" spans="1:20" ht="34">
+      <c r="A46" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" s="76" t="s">
+        <v>324</v>
+      </c>
+      <c r="C46" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D46" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F43" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G43" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H43" s="113" t="s">
-        <v>322</v>
-      </c>
-      <c r="J43" s="101"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-    </row>
-    <row r="44" spans="1:20" ht="34">
-      <c r="A44" s="107" t="s">
-        <v>323</v>
-      </c>
-      <c r="B44" s="108" t="s">
-        <v>324</v>
-      </c>
-      <c r="C44" s="107" t="s">
+      <c r="E46" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G46" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H46" s="77" t="s">
+        <v>325</v>
+      </c>
+      <c r="J46" s="72"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+    </row>
+    <row r="47" spans="1:20" ht="17">
+      <c r="A47" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="C47" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D47" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F44" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G44" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H44" s="109" t="s">
-        <v>325</v>
-      </c>
-      <c r="J44" s="101"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-    </row>
-    <row r="45" spans="1:20" ht="34">
-      <c r="A45" s="107" t="s">
-        <v>326</v>
-      </c>
-      <c r="B45" s="108" t="s">
-        <v>327</v>
-      </c>
-      <c r="C45" s="107" t="s">
+      <c r="E47" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H47" s="77" t="s">
+        <v>328</v>
+      </c>
+      <c r="J47" s="72"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+    </row>
+    <row r="48" spans="1:20" ht="17">
+      <c r="A48" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" s="76" t="s">
+        <v>330</v>
+      </c>
+      <c r="C48" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D48" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F45" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G45" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H45" s="109" t="s">
-        <v>328</v>
-      </c>
-      <c r="J45" s="101"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-    </row>
-    <row r="46" spans="1:20" ht="34">
-      <c r="A46" s="107" t="s">
-        <v>329</v>
-      </c>
-      <c r="B46" s="108" t="s">
-        <v>330</v>
-      </c>
-      <c r="C46" s="107" t="s">
+      <c r="E48" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G48" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H48" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="J48" s="72"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+    </row>
+    <row r="49" spans="1:20" ht="34">
+      <c r="A49" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="B49" s="76" t="s">
+        <v>333</v>
+      </c>
+      <c r="C49" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D49" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F46" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G46" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H46" s="109" t="s">
-        <v>331</v>
-      </c>
-      <c r="J46" s="101"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-    </row>
-    <row r="47" spans="1:20" ht="17">
-      <c r="A47" s="107" t="s">
-        <v>332</v>
-      </c>
-      <c r="B47" s="108" t="s">
-        <v>333</v>
-      </c>
-      <c r="C47" s="107" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F47" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G47" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H47" s="109" t="s">
+      <c r="E49" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F49" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G49" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="H49" s="77" t="s">
         <v>334</v>
       </c>
-      <c r="J47" s="101"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-    </row>
-    <row r="48" spans="1:20" ht="17">
-      <c r="A48" s="107" t="s">
-        <v>335</v>
-      </c>
-      <c r="B48" s="108" t="s">
-        <v>336</v>
-      </c>
-      <c r="C48" s="107" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F48" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G48" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H48" s="109" t="s">
-        <v>337</v>
-      </c>
-      <c r="J48" s="101"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-    </row>
-    <row r="49" spans="1:20" ht="34">
-      <c r="A49" s="107" t="s">
-        <v>338</v>
-      </c>
-      <c r="B49" s="108" t="s">
-        <v>339</v>
-      </c>
-      <c r="C49" s="107" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="F49" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="G49" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="H49" s="109" t="s">
-        <v>340</v>
-      </c>
-      <c r="J49" s="101"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="57"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="109"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="76"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="77"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="57"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="109"/>
-      <c r="J51" s="101"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="77"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="57"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="109"/>
-      <c r="J52" s="101"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="77"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="57"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="109"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="77"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="26"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="57"/>
-      <c r="B54" s="108"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="109"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="77"/>
+      <c r="J54" s="72"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="26"/>
     </row>
     <row r="55" spans="1:20" ht="17">
-      <c r="A55" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="B55" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="114" t="s">
+      <c r="A55" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="66"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9651,272 +9391,272 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="1.28515625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="30" customWidth="1"/>
-    <col min="8" max="16384" width="7.140625" style="30"/>
+    <col min="1" max="1" width="0.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="26" customWidth="1"/>
+    <col min="8" max="16384" width="7.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="71">
+      <c r="B2" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="60">
         <v>39958</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="14">
-      <c r="B4" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="57">
         <f>COUNTIF($C$5:$C$28, G4)</f>
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="17">
-      <c r="B5" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="G5" s="69" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="G5" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="57">
         <f>COUNTIF($C$5:$C$28, G5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="17">
-      <c r="B6" s="73" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="G6" s="69" t="s">
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="G6" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="57">
         <f>COUNTIF($C$5:$C$28, G6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="17">
-      <c r="B7" s="73" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="G7" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="57">
         <f>COUNTIF($C$5:$C$28, G7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="17">
-      <c r="B8" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="67" t="s">
+      <c r="B8" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="G8" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="68" t="str">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="G8" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="57" t="str">
         <f>COUNTA(B5:B28)-H6 &amp;" / " &amp; COUNTA(B5:B28)</f>
         <v>12 / 12</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="17">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+    </row>
+    <row r="10" spans="2:8" ht="17">
+      <c r="B10" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+    </row>
+    <row r="11" spans="2:8" ht="16">
+      <c r="B11" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+    </row>
+    <row r="12" spans="2:8" ht="16">
+      <c r="B12" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+    </row>
+    <row r="13" spans="2:8" ht="16">
+      <c r="B13" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+    </row>
+    <row r="14" spans="2:8" ht="16">
+      <c r="B14" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+    </row>
+    <row r="15" spans="2:8" ht="16">
+      <c r="B15" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C15" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-    </row>
-    <row r="10" spans="2:8" ht="17">
-      <c r="B10" s="73" t="s">
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+    </row>
+    <row r="16" spans="2:8" ht="16">
+      <c r="B16" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C16" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-    </row>
-    <row r="11" spans="2:8" ht="16">
-      <c r="B11" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-    </row>
-    <row r="12" spans="2:8" ht="16">
-      <c r="B12" s="74" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-    </row>
-    <row r="13" spans="2:8" ht="16">
-      <c r="B13" s="74" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-    </row>
-    <row r="14" spans="2:8" ht="16">
-      <c r="B14" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-    </row>
-    <row r="15" spans="2:8" ht="16">
-      <c r="B15" s="74" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-    </row>
-    <row r="16" spans="2:8" ht="16">
-      <c r="B16" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
     </row>
     <row r="17" spans="2:5" ht="16">
-      <c r="B17" s="73"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" spans="2:5" ht="16">
-      <c r="B18" s="73"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
     </row>
     <row r="19" spans="2:5" ht="16">
-      <c r="B19" s="73"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
+      <c r="B29" s="111" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9936,332 +9676,207 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941DDE7F-C73F-6B48-9463-3B12615969E1}">
-  <dimension ref="B2:H29"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="1.28515625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="30" customWidth="1"/>
-    <col min="8" max="16384" width="7.140625" style="30"/>
+    <col min="1" max="1" width="0.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="26" customWidth="1"/>
+    <col min="8" max="16384" width="7.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="60">
+        <v>39958</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="14">
+      <c r="B4" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="57">
+        <f>COUNTIF($C$5:$C$14, G4)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="17">
+      <c r="B5" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="G5" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="57">
+        <f>COUNTIF($C$5:$C$14, G5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17">
+      <c r="B6" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="G6" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="57">
+        <f>COUNTIF($C$5:$C$14, G6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17">
+      <c r="B7" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="G7" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="57">
+        <f>COUNTIF($C$5:$C$14, G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16">
+      <c r="B8" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="G8" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="57" t="str">
+        <f>COUNTA(B5:B14)-H6 &amp;" / " &amp; COUNTA(B5:B14)</f>
+        <v>8 / 10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16">
+      <c r="B9" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="56"/>
+    </row>
+    <row r="10" spans="2:8" ht="16">
+      <c r="B10" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="71">
-        <v>39958</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="14">
-      <c r="B4" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="69" t="s">
+      <c r="C10" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="68">
-        <f>COUNTIF($C$5:$C$28, G4)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="17">
-      <c r="B5" s="73" t="s">
+      <c r="D10" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="56"/>
+    </row>
+    <row r="11" spans="2:8" ht="16">
+      <c r="B11" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C11" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="G5" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="68">
-        <f>COUNTIF($C$5:$C$28, G5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="17">
-      <c r="B6" s="73" t="s">
+      <c r="D11" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="56"/>
+    </row>
+    <row r="12" spans="2:8" ht="17">
+      <c r="B12" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C12" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="G6" s="69" t="s">
-        <v>234</v>
-      </c>
-      <c r="H6" s="68">
-        <f>COUNTIF($C$5:$C$28, G6)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="17">
-      <c r="B7" s="73" t="s">
+      <c r="D12" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="56"/>
+    </row>
+    <row r="13" spans="2:8" ht="17">
+      <c r="B13" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="G7" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="68">
-        <f>COUNTIF($C$5:$C$28, G7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="16">
-      <c r="B8" s="74" t="s">
+      <c r="C13" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="56"/>
+    </row>
+    <row r="14" spans="2:8" ht="17">
+      <c r="B14" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="G8" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="68" t="str">
-        <f>COUNTA(B5:B28)-H6 &amp;" / " &amp; COUNTA(B5:B28)</f>
-        <v>13 / 15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="16">
-      <c r="B9" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="67"/>
-    </row>
-    <row r="10" spans="2:8" ht="17">
-      <c r="B10" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="67"/>
-    </row>
-    <row r="11" spans="2:8" ht="17">
-      <c r="B11" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="67"/>
-    </row>
-    <row r="12" spans="2:8" ht="17">
-      <c r="B12" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="67"/>
-    </row>
-    <row r="13" spans="2:8" ht="16">
-      <c r="B13" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="67"/>
-    </row>
-    <row r="14" spans="2:8" ht="16">
-      <c r="B14" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="67"/>
-    </row>
-    <row r="15" spans="2:8" ht="16">
-      <c r="B15" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="67"/>
-    </row>
-    <row r="16" spans="2:8" ht="16">
-      <c r="B16" s="75" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="67"/>
-    </row>
-    <row r="17" spans="2:5" ht="17">
-      <c r="B17" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E17" s="67"/>
-    </row>
-    <row r="18" spans="2:5" ht="17">
-      <c r="B18" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="D18" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="67"/>
-    </row>
-    <row r="19" spans="2:5" ht="17">
-      <c r="B19" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="D19" s="94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E19" s="67"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
+      <c r="C14" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B29:E29"/>
-  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C17 C20:C28" xr:uid="{AC8F5CFE-FDBD-154C-9AC9-5A4C6891AC1D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C12" xr:uid="{AC8F5CFE-FDBD-154C-9AC9-5A4C6891AC1D}">
       <formula1>"Passed, Failed, Not Run, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C19" xr:uid="{968C0768-A390-064F-ADB5-D8C0F9E43136}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C14" xr:uid="{968C0768-A390-064F-ADB5-D8C0F9E43136}">
       <formula1>"Passed, Failed, Not Run, Blocked, N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10274,317 +9889,240 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0010BD5C-23BE-D946-8FBC-0638F39B7E91}">
-  <dimension ref="B2:H29"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="1.28515625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="30" customWidth="1"/>
-    <col min="8" max="16384" width="7.140625" style="30"/>
+    <col min="1" max="1" width="0.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="26" customWidth="1"/>
+    <col min="8" max="16384" width="7.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="71">
+      <c r="B2" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="60">
         <v>39958</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="14">
-      <c r="B4" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="68">
-        <f>COUNTIF($C$5:$C$28, G4)</f>
+      <c r="H4" s="57">
+        <f>COUNTIF($C$5:$C$17, G4)</f>
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="G5" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="57">
+        <f>COUNTIF($C$5:$C$17, G5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16">
+      <c r="B6" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="G6" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="57">
+        <f>COUNTIF($C$5:$C$17, G6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16">
+      <c r="B7" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="G7" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="57">
+        <f>COUNTIF($C$5:$C$17, G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16">
+      <c r="B8" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="G8" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="57" t="str">
+        <f>COUNTA(B5:B17)-H6 &amp;" / " &amp; COUNTA(B5:B17)</f>
+        <v>13 / 13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16">
+      <c r="B9" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="56"/>
+    </row>
+    <row r="10" spans="2:8" ht="16">
+      <c r="B10" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="56"/>
+    </row>
+    <row r="11" spans="2:8" ht="16">
+      <c r="B11" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C11" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="67"/>
-      <c r="G5" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="68">
-        <f>COUNTIF($C$5:$C$28, G5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="16">
-      <c r="B6" s="93" t="s">
+      <c r="D11" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="56"/>
+    </row>
+    <row r="12" spans="2:8" ht="16">
+      <c r="B12" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C12" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="G6" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="68">
-        <f>COUNTIF($C$5:$C$28, G6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="16">
-      <c r="B7" s="93" t="s">
+      <c r="D12" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="56"/>
+    </row>
+    <row r="13" spans="2:8" ht="16">
+      <c r="B13" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C13" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="G7" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="68">
-        <f>COUNTIF($C$5:$C$28, G7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="16">
-      <c r="B8" s="93" t="s">
+      <c r="D13" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="56"/>
+    </row>
+    <row r="14" spans="2:8" ht="16">
+      <c r="B14" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C14" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="67"/>
-      <c r="G8" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="68" t="str">
-        <f>COUNTA(B5:B28)-H6 &amp;" / " &amp; COUNTA(B5:B28)</f>
-        <v>13 / 13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="16">
-      <c r="B9" s="93" t="s">
+      <c r="D14" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="56"/>
+    </row>
+    <row r="15" spans="2:8" ht="16">
+      <c r="B15" s="66" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C15" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="67"/>
-    </row>
-    <row r="10" spans="2:8" ht="16">
-      <c r="B10" s="93" t="s">
+      <c r="D15" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="56"/>
+    </row>
+    <row r="16" spans="2:8" ht="16">
+      <c r="B16" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C16" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" s="67"/>
-    </row>
-    <row r="11" spans="2:8" ht="16">
-      <c r="B11" s="93" t="s">
+      <c r="D16" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="56"/>
+    </row>
+    <row r="17" spans="2:5" ht="16">
+      <c r="B17" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C17" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="67"/>
-    </row>
-    <row r="12" spans="2:8" ht="16">
-      <c r="B12" s="93" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="67"/>
-    </row>
-    <row r="13" spans="2:8" ht="16">
-      <c r="B13" s="93" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="67"/>
-    </row>
-    <row r="14" spans="2:8" ht="16">
-      <c r="B14" s="93" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="67"/>
-    </row>
-    <row r="15" spans="2:8" ht="16">
-      <c r="B15" s="93" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="67"/>
-    </row>
-    <row r="16" spans="2:8" ht="16">
-      <c r="B16" s="93" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="67"/>
-    </row>
-    <row r="17" spans="2:5" ht="16">
-      <c r="B17" s="93" t="s">
-        <v>247</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E17" s="67"/>
-    </row>
-    <row r="18" spans="2:5" ht="16">
-      <c r="B18" s="73"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-    </row>
-    <row r="19" spans="2:5" ht="16">
-      <c r="B19" s="73"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
+      <c r="D17" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B29:E29"/>
-  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C28" xr:uid="{4C8E73B6-A79B-8547-9E6D-1B296F6121D8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C17" xr:uid="{4C8E73B6-A79B-8547-9E6D-1B296F6121D8}">
       <formula1>"Passed, Failed, Not Run, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10600,253 +10138,253 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="1.28515625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="30" customWidth="1"/>
-    <col min="8" max="16384" width="7.140625" style="30"/>
+    <col min="1" max="1" width="0.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="26" customWidth="1"/>
+    <col min="8" max="16384" width="7.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="71">
+      <c r="B2" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="60">
         <v>39958</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="14">
-      <c r="B4" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="70" t="s">
+      <c r="B4" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="57">
         <f>COUNTIF($C$5:$C$28, G4)</f>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="18">
-      <c r="B5" s="92" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="G5" s="69" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="G5" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="68">
+      <c r="H5" s="57">
         <f>COUNTIF($C$5:$C$28, G5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="18">
-      <c r="B6" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="G6" s="69" t="s">
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="G6" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="57">
         <f>COUNTIF($C$5:$C$28, G6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="18">
-      <c r="B7" s="92" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="G7" s="69" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="G7" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="57">
         <f>COUNTIF($C$5:$C$28, G7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="18">
-      <c r="B8" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="67" t="s">
+      <c r="B8" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="G8" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="H8" s="68" t="str">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="G8" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="57" t="str">
         <f>COUNTA(B5:B28)-H6 &amp;" / " &amp; COUNTA(B5:B28)</f>
         <v>6 / 6</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="18">
-      <c r="B9" s="92" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="67" t="s">
+      <c r="B9" s="65" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
     </row>
     <row r="10" spans="2:8" ht="18">
-      <c r="B10" s="92" t="s">
-        <v>233</v>
-      </c>
-      <c r="C10" s="67" t="s">
+      <c r="B10" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
     </row>
     <row r="11" spans="2:8" ht="16">
-      <c r="B11" s="73"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="2:8" ht="16">
-      <c r="B12" s="73"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" spans="2:8" ht="16">
-      <c r="B13" s="74"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
     </row>
     <row r="14" spans="2:8" ht="16">
-      <c r="B14" s="74"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
     </row>
     <row r="15" spans="2:8" ht="16">
-      <c r="B15" s="74"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="2:8" ht="16">
-      <c r="B16" s="75"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
     </row>
     <row r="17" spans="2:5" ht="16">
-      <c r="B17" s="73"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
     </row>
     <row r="18" spans="2:5" ht="16">
-      <c r="B18" s="73"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
     </row>
     <row r="19" spans="2:5" ht="16">
-      <c r="B19" s="73"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
+      <c r="B29" s="111" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10866,7 +10404,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC72268-E36C-D147-A393-B65EFA87201B}">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -10874,195 +10412,192 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="7.140625" style="33"/>
+    <col min="1" max="1" width="24.28515625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="7.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="56">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:7" ht="56">
+      <c r="A2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A4" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="84"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-    </row>
-    <row r="6" spans="1:10" ht="14">
-      <c r="A6" s="35" t="s">
+      <c r="B4" s="114"/>
+    </row>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" ht="14">
+      <c r="A6" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="35"/>
-    </row>
-    <row r="7" spans="1:10" ht="14">
-      <c r="A7" s="36" t="s">
+      <c r="B6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" ht="14">
+      <c r="A7" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:7" ht="14">
+      <c r="A8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:7" ht="14">
+      <c r="A9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A12" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:7" ht="28">
+      <c r="A13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14">
-      <c r="A14" s="36">
+    <row r="14" spans="1:7" ht="14">
+      <c r="A14" s="31">
         <v>0.6</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="34">
         <v>40022</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:7" ht="14">
+      <c r="A15" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="34">
         <v>40023</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" ht="14">
-      <c r="A16" s="37" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" ht="14">
+      <c r="A16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="34">
         <v>40050</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" ht="14">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="34">
         <v>40067</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="20" spans="1:6" ht="14">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="41" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="39" t="s">
         <v>45</v>
       </c>
     </row>
@@ -11080,7 +10615,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30805FBE-C160-364C-A261-11477834E335}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
@@ -11092,44 +10627,42 @@
     <col min="2" max="4" width="13.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:4" ht="39" customHeight="1">
+      <c r="A1" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="90" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="e">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -11141,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -11153,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -11165,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -11177,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -11189,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -11201,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -11213,7 +10746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -11225,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -11237,15 +10770,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6" t="e">
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -11257,7 +10790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -11282,12 +10815,12 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6" t="e">
+      <c r="A18" s="4" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="e">
@@ -11350,12 +10883,12 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="6" t="e">
+      <c r="A24" s="4" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="e">
@@ -11442,12 +10975,12 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="6" t="e">
+      <c r="A32" s="4" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="e">
@@ -11510,12 +11043,12 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="6" t="e">
+      <c r="A38" s="4" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="e">
@@ -11579,122 +11112,100 @@
     </row>
     <row r="44" spans="1:4" ht="17" thickBot="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" ht="31" thickBot="1">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="21"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:4" ht="165.5" customHeight="1" thickBot="1">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="16" t="e">
+      <c r="A47" s="14" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="15">
         <v>1</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="16">
         <v>-30</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="16" t="e">
+      <c r="A48" s="14" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B48" s="85">
+      <c r="B48" s="115">
         <v>3</v>
       </c>
-      <c r="C48" s="86">
+      <c r="C48" s="116">
         <v>-15</v>
       </c>
-      <c r="D48" s="87" t="s">
+      <c r="D48" s="117" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="16" t="e">
+      <c r="A49" s="14" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="87"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="117"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="16" t="e">
+      <c r="A50" s="14" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="15">
         <v>4</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="16">
         <v>-3.75</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="16" t="e">
+      <c r="A51" s="14" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="15">
         <v>4</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="16">
         <v>-2.25</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
     </row>
   </sheetData>
   <sheetProtection password="C8B5" sheet="1" objects="1" scenarios="1"/>
@@ -11716,18 +11227,18 @@
       <mc:Choice Requires="x14">
         <oleObject progId="PBrush" shapeId="26625" r:id="rId3">
           <objectPr defaultSize="0" autoPict="0" r:id="rId4">
-            <anchor moveWithCells="1" sizeWithCells="1">
+            <anchor>
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>10985500</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>25400</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>787400</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>406400</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -11766,18 +11277,18 @@
       <mc:Choice Requires="x14">
         <oleObject progId="PBrush" shapeId="26628" r:id="rId6">
           <objectPr defaultSize="0" autoPict="0" r:id="rId4">
-            <anchor moveWithCells="1" sizeWithCells="1">
+            <anchor>
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>10985500</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>25400</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>787400</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>406400</xdr:rowOff>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
